--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,138 +46,171 @@
     <t>crude</t>
   </si>
   <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>lowest</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>beginning</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>beginning</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>facing</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>facing</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>w</t>
+    <t>shortage</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
@@ -193,160 +226,199 @@
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>god</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>save</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>security</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>article</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>learn</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
     <t>keep</t>
   </si>
   <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>shop</t>
+    <t>amp</t>
   </si>
   <si>
     <t>need</t>
   </si>
   <si>
-    <t>amp</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -704,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -844,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K4">
         <v>0.9583333333333334</v>
@@ -873,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.896551724137931</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -891,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -923,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8918918918918919</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -941,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>0.9086161879895561</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>348</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>348</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -965,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -973,13 +1045,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8698630136986302</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C7">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -991,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K7">
-        <v>0.8936170212765957</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1015,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1023,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,16 +1116,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K8">
-        <v>0.890625</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L8">
-        <v>114</v>
+        <v>348</v>
       </c>
       <c r="M8">
-        <v>114</v>
+        <v>348</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1065,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1073,13 +1145,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8611111111111112</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1091,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K9">
-        <v>0.8839285714285714</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1115,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1123,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7948717948717948</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1141,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K10">
-        <v>0.8793103448275862</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1165,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1173,13 +1245,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7567567567567568</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1191,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K11">
-        <v>0.8732394366197183</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L11">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1215,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1223,13 +1295,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7450980392156863</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1241,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K12">
-        <v>0.86875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1265,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1273,38 +1345,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7419354838709677</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L13">
         <v>23</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13">
-        <v>0.8679245283018868</v>
-      </c>
-      <c r="L13">
-        <v>92</v>
-      </c>
-      <c r="M13">
-        <v>92</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1315,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1323,13 +1395,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7391304347826086</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1341,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K14">
-        <v>0.8604651162790697</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1365,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1373,13 +1445,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7344961240310077</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C15">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1391,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>0.8484848484848485</v>
+        <v>0.8625</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1415,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1423,13 +1495,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1441,31 +1513,31 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>8</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16">
-        <v>0.8414634146341463</v>
-      </c>
-      <c r="L16">
-        <v>69</v>
-      </c>
-      <c r="M16">
-        <v>69</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1473,13 +1545,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.717948717948718</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1491,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K17">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1515,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1523,13 +1595,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6984126984126984</v>
+        <v>0.7558139534883721</v>
       </c>
       <c r="C18">
-        <v>132</v>
+        <v>390</v>
       </c>
       <c r="D18">
-        <v>132</v>
+        <v>390</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1541,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K18">
-        <v>0.8076923076923077</v>
+        <v>0.84375</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1565,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1573,13 +1645,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6956521739130435</v>
+        <v>0.75</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1591,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K19">
-        <v>0.803921568627451</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1615,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1623,13 +1695,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6875</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1641,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1665,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1673,7 +1745,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.68</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C21">
         <v>17</v>
@@ -1691,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1715,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1723,13 +1795,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1741,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K22">
         <v>0.7777777777777778</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1765,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1773,13 +1845,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6610169491525424</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C23">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1791,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K23">
-        <v>0.7647058823529411</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L23">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="M23">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1815,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1823,13 +1895,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.65</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1841,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K24">
-        <v>0.7447698744769874</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L24">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1865,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1873,13 +1945,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6442953020134228</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="C25">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="D25">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1891,19 +1963,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K25">
-        <v>0.7407407407407407</v>
+        <v>0.76</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1915,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1923,13 +1995,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.64</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1941,31 +2013,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K26">
-        <v>0.7303754266211604</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L26">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1973,13 +2045,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6296296296296297</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1991,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K27">
-        <v>0.6966292134831461</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L27">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="M27">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2015,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2023,13 +2095,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6181818181818182</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2041,19 +2113,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K28">
-        <v>0.6914893617021277</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2065,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2073,13 +2145,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6153846153846154</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2091,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K29">
-        <v>0.6857142857142857</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2115,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2123,13 +2195,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6086956521739131</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2141,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K30">
-        <v>0.6857142857142857</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2165,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2173,13 +2245,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5454545454545454</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2191,19 +2263,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K31">
-        <v>0.6842105263157895</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2215,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2223,13 +2295,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5357142857142857</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2241,19 +2313,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K32">
-        <v>0.676923076923077</v>
+        <v>0.7152542372881356</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2265,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2273,13 +2345,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2291,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K33">
-        <v>0.639344262295082</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2315,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2323,13 +2395,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2341,19 +2413,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K34">
-        <v>0.6222222222222222</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2365,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2373,13 +2445,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2391,19 +2463,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K35">
-        <v>0.6060606060606061</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2415,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2423,13 +2495,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4666666666666667</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="C36">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D36">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2441,19 +2513,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2465,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2473,13 +2545,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4516129032258064</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2491,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K37">
-        <v>0.5714285714285714</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2515,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2523,7 +2595,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4516129032258064</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C38">
         <v>14</v>
@@ -2541,19 +2613,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K38">
-        <v>0.55</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2565,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2573,13 +2645,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4242424242424243</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2591,19 +2663,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K39">
-        <v>0.5357142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2615,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2623,13 +2695,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4007936507936508</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C40">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2641,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="K40">
-        <v>0.5238095238095238</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2665,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2673,13 +2745,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3896103896103896</v>
+        <v>0.5625</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2691,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="K41">
-        <v>0.5185185185185185</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2715,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2723,7 +2795,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.375</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -2741,31 +2813,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2773,13 +2845,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.35</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2791,19 +2863,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="K43">
-        <v>0.4838709677419355</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2815,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2823,13 +2895,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2975871313672922</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C44">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="D44">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2841,19 +2913,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="K44">
-        <v>0.4743589743589743</v>
+        <v>0.609375</v>
       </c>
       <c r="L44">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M44">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2865,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2873,49 +2945,49 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2586206896551724</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E45">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="K45">
-        <v>0.4482758620689655</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2923,13 +2995,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1966666666666667</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C46">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2941,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K46">
-        <v>0.390625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2965,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2973,31 +3045,31 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0183989670755326</v>
+        <v>0.425</v>
       </c>
       <c r="C47">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E47">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>3041</v>
+        <v>23</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K47">
-        <v>0.3409090909090909</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L47">
         <v>15</v>
@@ -3015,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3023,37 +3095,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01739539257169723</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="C48">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E48">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>2090</v>
+        <v>46</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K48">
-        <v>0.2638888888888889</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3065,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3073,309 +3145,937 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004440215667618141</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C49">
+        <v>99</v>
+      </c>
+      <c r="D49">
+        <v>99</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>153</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K49">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="L49">
+        <v>40</v>
+      </c>
+      <c r="M49">
+        <v>40</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.375</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K50">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.2707774798927614</v>
+      </c>
+      <c r="C51">
+        <v>101</v>
+      </c>
+      <c r="D51">
+        <v>101</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>272</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K51">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="L51">
+        <v>31</v>
+      </c>
+      <c r="M51">
+        <v>31</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.2372881355932203</v>
+      </c>
+      <c r="C52">
         <v>14</v>
       </c>
-      <c r="D49">
+      <c r="D52">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>45</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K52">
+        <v>0.5</v>
+      </c>
+      <c r="L52">
+        <v>13</v>
+      </c>
+      <c r="M52">
+        <v>13</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.1366666666666667</v>
+      </c>
+      <c r="C53">
+        <v>41</v>
+      </c>
+      <c r="D53">
+        <v>41</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>259</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K53">
+        <v>0.4915254237288136</v>
+      </c>
+      <c r="L53">
+        <v>29</v>
+      </c>
+      <c r="M53">
+        <v>29</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.08191126279863481</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>24</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>269</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K54">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="L54">
+        <v>14</v>
+      </c>
+      <c r="M54">
+        <v>14</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.05932203389830509</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>222</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K55">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L55">
+        <v>14</v>
+      </c>
+      <c r="M55">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.0353448275862069</v>
+      </c>
+      <c r="C56">
+        <v>41</v>
+      </c>
+      <c r="D56">
+        <v>42</v>
+      </c>
+      <c r="E56">
+        <v>0.02</v>
+      </c>
+      <c r="F56">
+        <v>0.98</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1119</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K56">
+        <v>0.3148148148148148</v>
+      </c>
+      <c r="L56">
+        <v>34</v>
+      </c>
+      <c r="M56">
+        <v>35</v>
+      </c>
+      <c r="N56">
+        <v>0.97</v>
+      </c>
+      <c r="O56">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E49">
-        <v>0.77</v>
-      </c>
-      <c r="F49">
-        <v>0.23</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>3139</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K49">
-        <v>0.1752577319587629</v>
-      </c>
-      <c r="L49">
+      <c r="B57">
+        <v>0.03006789524733269</v>
+      </c>
+      <c r="C57">
+        <v>93</v>
+      </c>
+      <c r="D57">
+        <v>107</v>
+      </c>
+      <c r="E57">
+        <v>0.13</v>
+      </c>
+      <c r="F57">
+        <v>0.87</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>3000</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K57">
+        <v>0.28</v>
+      </c>
+      <c r="L57">
+        <v>14</v>
+      </c>
+      <c r="M57">
+        <v>14</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.02123643227937707</v>
+      </c>
+      <c r="C58">
+        <v>45</v>
+      </c>
+      <c r="D58">
+        <v>69</v>
+      </c>
+      <c r="E58">
+        <v>0.35</v>
+      </c>
+      <c r="F58">
+        <v>0.65</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2074</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K58">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L58">
+        <v>20</v>
+      </c>
+      <c r="M58">
+        <v>20</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.02093023255813953</v>
+      </c>
+      <c r="C59">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+      <c r="E59">
+        <v>0.28</v>
+      </c>
+      <c r="F59">
+        <v>0.72</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>842</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K59">
+        <v>0.2338709677419355</v>
+      </c>
+      <c r="L59">
+        <v>29</v>
+      </c>
+      <c r="M59">
+        <v>29</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.009309791332263243</v>
+      </c>
+      <c r="C60">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <v>115</v>
+      </c>
+      <c r="E60">
+        <v>0.75</v>
+      </c>
+      <c r="F60">
+        <v>0.25</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>3086</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K60">
+        <v>0.1793478260869565</v>
+      </c>
+      <c r="L60">
+        <v>33</v>
+      </c>
+      <c r="M60">
+        <v>34</v>
+      </c>
+      <c r="N60">
+        <v>0.97</v>
+      </c>
+      <c r="O60">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K61">
+        <v>0.1384615384615385</v>
+      </c>
+      <c r="L61">
+        <v>18</v>
+      </c>
+      <c r="M61">
+        <v>19</v>
+      </c>
+      <c r="N61">
+        <v>0.95</v>
+      </c>
+      <c r="O61">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K62">
+        <v>0.1049382716049383</v>
+      </c>
+      <c r="L62">
         <v>17</v>
       </c>
-      <c r="M49">
+      <c r="M62">
+        <v>18</v>
+      </c>
+      <c r="N62">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O62">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K63">
+        <v>0.0979020979020979</v>
+      </c>
+      <c r="L63">
+        <v>14</v>
+      </c>
+      <c r="M63">
+        <v>14</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K64">
+        <v>0.08413461538461539</v>
+      </c>
+      <c r="L64">
+        <v>35</v>
+      </c>
+      <c r="M64">
+        <v>35</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K65">
+        <v>0.07467532467532467</v>
+      </c>
+      <c r="L65">
+        <v>23</v>
+      </c>
+      <c r="M65">
+        <v>23</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K66">
+        <v>0.06876790830945559</v>
+      </c>
+      <c r="L66">
+        <v>24</v>
+      </c>
+      <c r="M66">
+        <v>24</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K67">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="L67">
         <v>17</v>
       </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="J50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K50">
-        <v>0.1743119266055046</v>
-      </c>
-      <c r="L50">
+      <c r="M67">
+        <v>17</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K68">
+        <v>0.02950310559006211</v>
+      </c>
+      <c r="L68">
         <v>19</v>
       </c>
-      <c r="M50">
-        <v>19</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="J51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K51">
-        <v>0.1544715447154472</v>
-      </c>
-      <c r="L51">
-        <v>19</v>
-      </c>
-      <c r="M51">
-        <v>20</v>
-      </c>
-      <c r="N51">
-        <v>0.95</v>
-      </c>
-      <c r="O51">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="J52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K52">
-        <v>0.1126760563380282</v>
-      </c>
-      <c r="L52">
+      <c r="M68">
+        <v>25</v>
+      </c>
+      <c r="N68">
+        <v>0.76</v>
+      </c>
+      <c r="O68">
+        <v>0.24</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K69">
+        <v>0.02711223203026482</v>
+      </c>
+      <c r="L69">
+        <v>86</v>
+      </c>
+      <c r="M69">
+        <v>115</v>
+      </c>
+      <c r="N69">
+        <v>0.75</v>
+      </c>
+      <c r="O69">
+        <v>0.25</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K70">
+        <v>0.0244988864142539</v>
+      </c>
+      <c r="L70">
+        <v>22</v>
+      </c>
+      <c r="M70">
+        <v>25</v>
+      </c>
+      <c r="N70">
+        <v>0.88</v>
+      </c>
+      <c r="O70">
+        <v>0.12</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K71">
+        <v>0.01801801801801802</v>
+      </c>
+      <c r="L71">
         <v>16</v>
       </c>
-      <c r="M52">
-        <v>17</v>
-      </c>
-      <c r="N52">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O52">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="J53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K53">
-        <v>0.08469055374592833</v>
-      </c>
-      <c r="L53">
-        <v>26</v>
-      </c>
-      <c r="M53">
-        <v>27</v>
-      </c>
-      <c r="N53">
-        <v>0.96</v>
-      </c>
-      <c r="O53">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="J54" s="1" t="s">
+      <c r="M71">
+        <v>22</v>
+      </c>
+      <c r="N71">
+        <v>0.73</v>
+      </c>
+      <c r="O71">
+        <v>0.27</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K72">
+        <v>0.01143946615824595</v>
+      </c>
+      <c r="L72">
+        <v>24</v>
+      </c>
+      <c r="M72">
+        <v>69</v>
+      </c>
+      <c r="N72">
+        <v>0.35</v>
+      </c>
+      <c r="O72">
+        <v>0.65</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K73">
+        <v>0.0046449900464499</v>
+      </c>
+      <c r="L73">
+        <v>14</v>
+      </c>
+      <c r="M73">
         <v>107</v>
       </c>
-      <c r="K54">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="L54">
-        <v>15</v>
-      </c>
-      <c r="M54">
-        <v>15</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="J55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K55">
-        <v>0.06920415224913495</v>
-      </c>
-      <c r="L55">
-        <v>20</v>
-      </c>
-      <c r="M55">
-        <v>20</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="J56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K56">
-        <v>0.05747126436781609</v>
-      </c>
-      <c r="L56">
-        <v>20</v>
-      </c>
-      <c r="M56">
-        <v>21</v>
-      </c>
-      <c r="N56">
-        <v>0.95</v>
-      </c>
-      <c r="O56">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K57">
-        <v>0.01997780244173141</v>
-      </c>
-      <c r="L57">
-        <v>18</v>
-      </c>
-      <c r="M57">
-        <v>18</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K58">
-        <v>0.01506118606840289</v>
-      </c>
-      <c r="L58">
-        <v>48</v>
-      </c>
-      <c r="M58">
-        <v>62</v>
-      </c>
-      <c r="N58">
-        <v>0.77</v>
-      </c>
-      <c r="O58">
-        <v>0.23</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>3139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="J59" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K59">
-        <v>0.007597340930674264</v>
-      </c>
-      <c r="L59">
-        <v>16</v>
-      </c>
-      <c r="M59">
-        <v>53</v>
-      </c>
-      <c r="N59">
-        <v>0.3</v>
-      </c>
-      <c r="O59">
-        <v>0.7</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>2090</v>
+      <c r="N73">
+        <v>0.13</v>
+      </c>
+      <c r="O73">
+        <v>0.87</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
